--- a/MMS/Test Cases/cms.xlsx
+++ b/MMS/Test Cases/cms.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Local" sheetId="3" r:id="rId2"/>
+    <sheet name="STAGING" sheetId="4" r:id="rId3"/>
+    <sheet name="LIVE" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -258,13 +260,67 @@
   </si>
   <si>
     <t>notifications</t>
+  </si>
+  <si>
+    <t>Recent monitor</t>
+  </si>
+  <si>
+    <t>Open a recent monitor</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>INBOX COUNT</t>
+  </si>
+  <si>
+    <t>Not updated when user in dashboard screen</t>
+  </si>
+  <si>
+    <t>View Inbox</t>
+  </si>
+  <si>
+    <t>Opens</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Opens a recent monitor</t>
+  </si>
+  <si>
+    <t>Crashing: When User mail is not verified.</t>
+  </si>
+  <si>
+    <t>login verification asks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> login is asking for the monitor user</t>
+  </si>
+  <si>
+    <t>recent monitor is working</t>
+  </si>
+  <si>
+    <t>Open A Recent Monitor</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>opens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +328,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +397,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -337,11 +418,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,8 +489,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,175 +528,6 @@
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2066"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2067"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2070" name="Control 22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2070"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2071" name="Control 23" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2071"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,7 +605,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -683,7 +639,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,15 +814,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
@@ -884,7 +839,7 @@
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="45">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -934,7 +889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -984,7 +939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1152,27 +1107,27 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="30">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1180,245 +1135,550 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId4" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId4" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId6" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId6" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId7" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId7" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId8" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId8" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <control shapeId="2071" r:id="rId3" name="Control 23"/>
+    <control shapeId="2070" r:id="rId4" name="Control 22"/>
+    <control shapeId="2067" r:id="rId5" name="Control 19"/>
+    <control shapeId="2066" r:id="rId6" name="Control 18"/>
   </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="15.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="21" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="31.5">
+      <c r="C1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="47.25">
+      <c r="B2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="47.25">
+      <c r="B3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="47.25">
+      <c r="B4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="47.25">
+      <c r="B5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="47.25">
+      <c r="B6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="47.25">
+      <c r="B7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="63">
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="5" sqref="A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 E1:E1048576 F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="15.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5">
+      <c r="B1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="31.5">
+      <c r="A3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5">
+      <c r="A4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="47.25">
+      <c r="A6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="63">
+      <c r="A9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="15.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" ht="31.5">
+      <c r="B1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="F1" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="E2" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5">
+      <c r="A3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E3" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5">
+      <c r="A4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="E4" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="E5" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5">
+      <c r="A6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F6" t="b">
+      <c r="E6" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="E7" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="E8" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63">
+      <c r="A9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="13" t="s">
         <v>77</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/MMS/Test Cases/cms.xlsx
+++ b/MMS/Test Cases/cms.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -258,13 +258,88 @@
   </si>
   <si>
     <t>notifications</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Thumbnail</t>
+  </si>
+  <si>
+    <t>Average Ticket Price</t>
+  </si>
+  <si>
+    <t>Multiplex</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Screen Selection Allowed</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>total screens</t>
+  </si>
+  <si>
+    <t>class type</t>
+  </si>
+  <si>
+    <t>Hall type</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>avg ticket price</t>
+  </si>
+  <si>
+    <t>velu@snapooh.com</t>
+  </si>
+  <si>
+    <t>admin@snapooh.com</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>gowthami34.ksit@gmail.com</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>malligestar@gmail.com</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>Admin of one company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin of another company </t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>normal user of another company</t>
+  </si>
+  <si>
+    <t>monitor user of another company</t>
+  </si>
+  <si>
+    <t>not possible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +347,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +411,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -338,10 +433,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,8 +470,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,15 +499,39 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
@@ -412,13 +543,13 @@
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -453,13 +584,13 @@
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -494,13 +625,13 @@
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -535,13 +666,13 @@
         <xdr:from>
           <xdr:col>13</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -550,6 +681,252 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2071"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2078" name="Control 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2079" name="Control 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2080" name="Control 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2081" name="Control 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2082" name="Control 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2083" name="Control 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2083"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -861,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:P15"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,297 +1261,395 @@
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="L4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="O4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="4"/>
       <c r="P6" s="3" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>51</v>
+      <c r="L7" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="P7" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
+    <row r="23" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="12"/>
+    </row>
+    <row r="26" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1185,19 +1660,169 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId4" name="Control 23">
+        <control shapeId="2083" r:id="rId4" name="Control 35">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>13</xdr:col>
+                <xdr:col>14</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId4" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId6" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId6" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId7" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId7" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId9" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId9" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId10" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId10" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId11" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId11" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId12" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -1205,24 +1830,49 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2071" r:id="rId4" name="Control 23"/>
+        <control shapeId="2066" r:id="rId12" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId6" name="Control 22">
+        <control shapeId="2067" r:id="rId13" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId13" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId14" name="Control 22">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -1230,49 +1880,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2070" r:id="rId6" name="Control 22"/>
+        <control shapeId="2070" r:id="rId14" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId7" name="Control 19">
+        <control shapeId="2071" r:id="rId15" name="Control 23">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>13</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId7" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId8" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -1280,7 +1905,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2066" r:id="rId8" name="Control 18"/>
+        <control shapeId="2071" r:id="rId15" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1289,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1926,7 @@
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>79</v>
       </c>
@@ -1309,7 +1934,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>69</v>
       </c>
@@ -1323,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>71</v>
       </c>
@@ -1337,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1351,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>73</v>
       </c>
@@ -1365,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>71</v>
       </c>
@@ -1379,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>76</v>
       </c>
@@ -1393,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -1407,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -1421,7 +2046,92 @@
         <v>77</v>
       </c>
     </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1"/>
+    <hyperlink ref="G15" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
+    <hyperlink ref="G13" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MMS/Test Cases/cms.xlsx
+++ b/MMS/Test Cases/cms.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -313,7 +313,10 @@
     <t>opens</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">opens </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> False</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1140,10 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <controls>
-    <control shapeId="2071" r:id="rId3" name="Control 23"/>
-    <control shapeId="2070" r:id="rId4" name="Control 22"/>
-    <control shapeId="2067" r:id="rId5" name="Control 19"/>
-    <control shapeId="2066" r:id="rId6" name="Control 18"/>
+    <control shapeId="2066" r:id="rId3" name="Control 18"/>
+    <control shapeId="2067" r:id="rId4" name="Control 19"/>
+    <control shapeId="2070" r:id="rId5" name="Control 22"/>
+    <control shapeId="2071" r:id="rId6" name="Control 23"/>
   </controls>
 </worksheet>
 </file>
@@ -1543,7 +1546,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1579,6 +1582,9 @@
       <c r="E2" s="13" t="b">
         <v>1</v>
       </c>
+      <c r="F2" s="13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="13" t="s">
@@ -1593,6 +1599,9 @@
       <c r="E3" s="13" t="b">
         <v>1</v>
       </c>
+      <c r="F3" s="13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="13" t="s">
@@ -1607,6 +1616,9 @@
       <c r="E4" s="13" t="b">
         <v>1</v>
       </c>
+      <c r="F4" s="13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -1621,6 +1633,9 @@
       <c r="E5" s="13" t="b">
         <v>1</v>
       </c>
+      <c r="F5" s="13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="31.5">
       <c r="A6" s="13" t="s">
@@ -1635,6 +1650,9 @@
       <c r="E6" s="13" t="b">
         <v>0</v>
       </c>
+      <c r="F6" s="13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
@@ -1649,6 +1667,9 @@
       <c r="E7" s="13" t="b">
         <v>1</v>
       </c>
+      <c r="F7" s="13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
@@ -1678,7 +1699,7 @@
         <v>77</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/MMS/Test Cases/cms.xlsx
+++ b/MMS/Test Cases/cms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="495" windowWidth="19875" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -356,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -437,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -480,6 +486,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,27 +515,27 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1660,7 +1667,232 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId4" name="Control 35">
+        <control shapeId="2071" r:id="rId4" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId4" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId6" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId6" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId7" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId7" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId8" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId8" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId9" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId9" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId11" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId11" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId12" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId12" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId13" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId13" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId14" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId14" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId15" name="Control 35">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1680,232 +1912,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2083" r:id="rId4" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId6" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId6" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId7" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId7" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId9" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId9" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId10" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId10" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId11" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId11" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId12" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId12" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId13" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId13" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId14" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId14" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId15" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId15" name="Control 23"/>
+        <control shapeId="2083" r:id="rId15" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1917,7 +1924,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,60 +1942,64 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2003,34 +2014,37 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
